--- a/pre-processing/data_cleaned/speaker.xlsx
+++ b/pre-processing/data_cleaned/speaker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:J96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,7 +491,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>loa momo thong bao chuyen khoan - tang khay qrcode - hang chinh hang</t>
+          <t>loa momo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>loa bluetooth jbl charge 6 - hang chinh hang</t>
+          <t>loa bluetooth jbl charge 6</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -571,7 +571,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>loa bluetooth ngoai troi xiaomi bhr4802gl | chong nuoc ip67 | thoi gian choi nhac 10h | ban quoc te | bao hanh 1 nam | hang chinh hang</t>
+          <t>loa xiaomi bhr4802gl</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -607,51 +607,51 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>277548884</v>
+        <v>277468981</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>loa vi tinh đe ban super bass cuc đa dong loa cao cap cho laptop, pc, đien thoai mau đen 106x66mm - hang chinh hang</t>
+          <t>loa bluetooth mini karaoke</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>luckyjqr</t>
+          <t>miniin</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>images/speaker/product_277548884.jpg</t>
+          <t>images/speaker/product_277468981.jpg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/47/f1/d0/fdc5b470c609e29f5e46b52b7fa9e904.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/42/a2/ab/fa64b11d72d1e42953d1668caf55a1a6.png</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>276360</v>
+        <v>157000</v>
       </c>
       <c r="G5" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>277548885</v>
+        <v>277468983</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>277468981</v>
+        <v>277369759</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>loa bluetooth mini karaoke khong day, kem 2 mic, am thanh song đong, đen led 16 mau - hang chinh hang miniin</t>
+          <t>loa bluetooth chu g</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -661,305 +661,305 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>images/speaker/product_277468981.jpg</t>
+          <t>images/speaker/product_277369759.jpg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/42/a2/ab/fa64b11d72d1e42953d1668caf55a1a6.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/39/80/a0/c9474714cfb0b80432333bd0eb238aa4.png</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>157000</v>
+        <v>149000</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
         <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>277468983</v>
+        <v>277369760</v>
       </c>
       <c r="J6" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>277369759</v>
+        <v>276582252</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>loa bluetooth chu g led rgb, sac nhanh khong day, đen nhay theo nhac, đong ho bao gio đa chuc nang - hang chinh hang miniin</t>
+          <t>loa bluetooth anker soundcore 3 a3117</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>miniin</t>
+          <t>anker</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>images/speaker/product_277369759.jpg</t>
+          <t>images/speaker/product_276582252.jpg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/39/80/a0/c9474714cfb0b80432333bd0eb238aa4.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/4b/d3/5d/0df6ad508ac96430cc9ecb370212f3a1.jpg</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>149000</v>
+        <v>1930000</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>277369760</v>
+        <v>276582260</v>
       </c>
       <c r="J7" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>276582252</v>
+        <v>276566181</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>loa bluetooth anker soundcore 3 a3117 - hang chinh hang</t>
+          <t>loa may tinh e1002</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>anker</t>
+          <t>doron</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>images/speaker/product_276582252.jpg</t>
+          <t>images/speaker/product_276566181.jpg</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/4b/d3/5d/0df6ad508ac96430cc9ecb370212f3a1.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/29/33/3b/88e9badde8db14e8795ad486f878ac3f.jpg</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1930000</v>
+        <v>78000</v>
       </c>
       <c r="G8" t="n">
         <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>276582260</v>
+        <v>276566183</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>276566181</v>
+        <v>276386509</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>loa may tinh e1002 dung cho may tinh ban, pc, laptop, am thanh 4d chat luong tot - hang chinh hang</t>
+          <t>loa vi tinh soundbar q2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>doron</t>
+          <t>tech77</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>images/speaker/product_276566181.jpg</t>
+          <t>images/speaker/product_276386509.jpg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/29/33/3b/88e9badde8db14e8795ad486f878ac3f.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/8a/7b/eb/220d0a167587a511b47b3670a35aabc3.jpg</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>78000</v>
+        <v>242000</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9" t="n">
         <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>276566183</v>
+        <v>275177892</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>276386509</v>
+        <v>276075466</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>loa vi tinh soundbar q2 cho may tinh laptop hang nhap khau</t>
+          <t>loa bluetooth marshall willen ii portable</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>tech77</t>
+          <t>marshall</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>images/speaker/product_276386509.jpg</t>
+          <t>images/speaker/product_276075466.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/8a/7b/eb/220d0a167587a511b47b3670a35aabc3.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/f1/2e/ed/8fe4edc4a67abf0ac2ef2aeb87bc3aab.jpg</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>242000</v>
+        <v>2960000</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="H10" t="n">
         <v>5</v>
       </c>
       <c r="I10" t="n">
-        <v>275177892</v>
+        <v>275946075</v>
       </c>
       <c r="J10" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>276075466</v>
+        <v>275513834</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[new arrival] loa bluetooth marshall willen ii portable - hang chinh hang</t>
+          <t>loa bluetooth jbl clip 5</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>marshall</t>
+          <t>jbl</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>images/speaker/product_276075466.jpg</t>
+          <t>images/speaker/product_275513834.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/f1/2e/ed/8fe4edc4a67abf0ac2ef2aeb87bc3aab.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/67/aa/6b/7f2b935840624971dfbd626660edc66b.jpg</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2960000</v>
+        <v>1296927</v>
       </c>
       <c r="G11" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="I11" t="n">
-        <v>275946075</v>
+        <v>275514411</v>
       </c>
       <c r="J11" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>275513834</v>
+        <v>275406083</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>loa bluetooth jbl clip 5 - hang chinh hang</t>
+          <t>loa bluetooth anker powerconf s500</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>jbl</t>
+          <t>anker</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>images/speaker/product_275513834.jpg</t>
+          <t>images/speaker/product_275406083.jpg</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/67/aa/6b/7f2b935840624971dfbd626660edc66b.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/2b/27/af/4523d339fd00437117b277e3d9ccb2f6.jpg</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1296927</v>
+        <v>3510000</v>
       </c>
       <c r="G12" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H12" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>275514411</v>
+        <v>275406084</v>
       </c>
       <c r="J12" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>275406083</v>
+        <v>275262949</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>loa hoi nghi bluetooth anker powerconf s500 - hang chinh hang</t>
+          <t>loa crown 5</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>anker</t>
+          <t>crown</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>images/speaker/product_275406083.jpg</t>
+          <t>images/speaker/product_275262949.jpg</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/2b/27/af/4523d339fd00437117b277e3d9ccb2f6.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/63/5f/51/93bb2369808b60ff5336cb7c65bb0c61.jpg</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3510000</v>
+        <v>319000</v>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>275406084</v>
+        <v>275262950</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -967,599 +967,599 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>275262949</v>
+        <v>274704359</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>loa crown 5 đe co bluetooth ( hang chinh hang )</t>
+          <t>loa aporo t18 plus 2.4g</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>crown</t>
+          <t>aporo</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>images/speaker/product_275262949.jpg</t>
+          <t>images/speaker/product_274704359.jpg</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/63/5f/51/93bb2369808b60ff5336cb7c65bb0c61.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/83/19/53/aca4c2b4f56e00b3d073918b2d9926fa.jpg</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>319000</v>
+        <v>958000</v>
       </c>
       <c r="G14" t="n">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I14" t="n">
-        <v>275262950</v>
+        <v>274844053</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>274704359</v>
+        <v>252390163</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>loa may tro giang khong day aporo t18 plus 2.4g wifi bluetooth 5.0 hang chinh hang (lua chon them hop bao ve aporo)</t>
+          <t>loa bluetooth karaoke su-yosd ys104</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>aporo</t>
+          <t>suyosd</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>images/speaker/product_274704359.jpg</t>
+          <t>images/speaker/product_252390163.jpg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/83/19/53/aca4c2b4f56e00b3d073918b2d9926fa.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/8c/96/42/c876c652bda44920748fb96d17daff60.jpg</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>958000</v>
+        <v>304560</v>
       </c>
       <c r="G15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="I15" t="n">
-        <v>274844053</v>
+        <v>252390167</v>
       </c>
       <c r="J15" t="n">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>252963851</v>
+        <v>196201409</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>may nghe nhac bluetooth the thao ruizu x50 / x52 - hang chinh hang</t>
+          <t>loa go bluetooth xm 520</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ruizu</t>
+          <t>xm</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>images/speaker/product_252963851.jpg</t>
+          <t>images/speaker/product_196201409.jpg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/d1/12/1a/2f550c77ffce011eff2dc85327896306.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/d3/ae/92/1f7c66642df2565f251231c114f94d82.jpg</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>530000</v>
+        <v>236680</v>
       </c>
       <c r="G16" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H16" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="I16" t="n">
-        <v>2010681</v>
+        <v>199008406</v>
       </c>
       <c r="J16" t="n">
-        <v>46</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>252390163</v>
+        <v>191320811</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>loa bluetooth karaoke su-yosd ys104 - loa xach tay mini chat lieu nhua cao cap, cong suat 6w va micro khong day - hang nhap khau</t>
+          <t>loa leerfei yst 3513 2.0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>suyosd</t>
+          <t>leerfei</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>images/speaker/product_252390163.jpg</t>
+          <t>images/speaker/product_191320811.jpg</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/8c/96/42/c876c652bda44920748fb96d17daff60.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/23/ea/1c/ebce0794ababe54445ed6512e1de5ddb.jpg</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>304560</v>
+        <v>160000</v>
       </c>
       <c r="G17" t="n">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="H17" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>252390167</v>
+        <v>191320812</v>
       </c>
       <c r="J17" t="n">
-        <v>47</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>196201409</v>
+        <v>188565088</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>loa go bluetooth xm 520 - am thanh cuc hay - jl - hang chinh hang</t>
+          <t>loa jbl flip 6</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>xm</t>
+          <t>jbl</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>images/speaker/product_196201409.jpg</t>
+          <t>images/speaker/product_188565088.jpg</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/d3/ae/92/1f7c66642df2565f251231c114f94d82.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/58/50/8f/036b824c27d115608719f7bfe3a69dd4.jpg</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>236680</v>
+        <v>2950000</v>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="I18" t="n">
-        <v>199008406</v>
+        <v>198929505</v>
       </c>
       <c r="J18" t="n">
-        <v>111</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>191320811</v>
+        <v>171232872</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>loa vi tinh loa go cong suat lon dung cho pc, laptop, đt,tivi - leerfei yst 3513 2.0 - nth - hang nhap khau</t>
+          <t>loa vi tinh q9 sound bar</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>leerfei</t>
+          <t>hysj</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>images/speaker/product_191320811.jpg</t>
+          <t>images/speaker/product_171232872.jpg</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/23/ea/1c/ebce0794ababe54445ed6512e1de5ddb.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/02/8c/97/ec20d0a3e3a6c8ddb0befa8dcfd682c4.jpg</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>160000</v>
+        <v>276450</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="I19" t="n">
-        <v>191320812</v>
+        <v>171232873</v>
       </c>
       <c r="J19" t="n">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>188565088</v>
+        <v>164285225</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>loa bluetooth jbl flip 6 - hang chinh hang</t>
+          <t>loa 2.0 tako a730</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>jbl</t>
+          <t>tako</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>images/speaker/product_188565088.jpg</t>
+          <t>images/speaker/product_164285225.jpg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/58/50/8f/036b824c27d115608719f7bfe3a69dd4.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a9/e4/9c/38ba373ccd6a1194e7d4136225a61559.png</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2950000</v>
+        <v>185000</v>
       </c>
       <c r="G20" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>164285226</v>
+      </c>
+      <c r="J20" t="n">
         <v>5</v>
-      </c>
-      <c r="I20" t="n">
-        <v>198929505</v>
-      </c>
-      <c r="J20" t="n">
-        <v>220</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>171232872</v>
+        <v>160946349</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>loa vi tinh q9 sound bar hd led rgb cho may tinh, laptop, đien thoai, may tinh bang hang nhap khau</t>
+          <t>loa bluetooth pkcb</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>hysj</t>
+          <t>pkcb</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>images/speaker/product_171232872.jpg</t>
+          <t>images/speaker/product_160946349.jpg</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/02/8c/97/ec20d0a3e3a6c8ddb0befa8dcfd682c4.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/36/f5/c5/5a9d7f3c9c33940c5a9d74948ca61a3a.png</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>276450</v>
+        <v>1750000</v>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="H21" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>171232873</v>
+        <v>278114056</v>
       </c>
       <c r="J21" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>164285225</v>
+        <v>153544569</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>loa vi tinh 2.0 tako a730 - hang chinh hang</t>
+          <t>loa may tinh</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>tako</t>
+          <t>doron</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>images/speaker/product_164285225.jpg</t>
+          <t>images/speaker/product_153544569.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a9/e4/9c/38ba373ccd6a1194e7d4136225a61559.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/54/3f/73/0a05db6a772e5b7ea54060949482b2b9.jpg</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>185000</v>
+        <v>139000</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I22" t="n">
-        <v>164285226</v>
+        <v>277484016</v>
       </c>
       <c r="J22" t="n">
-        <v>5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>160946349</v>
+        <v>127695415</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>loa bluetooth nghe nhac khong day 100w cong suat lon super bass co cong usb, the nho, line 3.5mm pin 10400mah sac type c chip dsp tws len 200w cao cap hang chinh hang pkcb</t>
+          <t>loa hxsj v6</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>pkcb</t>
+          <t>hxsj</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>images/speaker/product_160946349.jpg</t>
+          <t>images/speaker/product_127695415.jpg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/36/f5/c5/5a9d7f3c9c33940c5a9d74948ca61a3a.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/8a/89/33/9a062c76cacb992f4caaf632e0328eee.jpg</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1750000</v>
+        <v>222130</v>
       </c>
       <c r="G23" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="I23" t="n">
-        <v>278114056</v>
+        <v>127695419</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>837</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>153544569</v>
+        <v>127600345</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>loa may tinh đe ban, am thanh sieu tram, danh cho hoc online, nghe nhac, xem phim - hang chinh hang</t>
+          <t>may tro giang takstar e261w</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>doron</t>
+          <t>takstar</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>images/speaker/product_153544569.jpg</t>
+          <t>images/speaker/product_127600345.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/54/3f/73/0a05db6a772e5b7ea54060949482b2b9.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/05/b9/95/da3ede58bcd8d0556f3b1800a3ff342c.jpg</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>139000</v>
+        <v>1882000</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
         <v>5</v>
       </c>
       <c r="I24" t="n">
-        <v>277484016</v>
+        <v>127600347</v>
       </c>
       <c r="J24" t="n">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>127695415</v>
+        <v>117916066</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>loa bluetooth hxsj v6 ban mo rong ho tro ket noi bluetooth 5.0, the nho, usb, cong suat 2 loa 10w nhieu mau sac - hang chinh hang</t>
+          <t>bo ba loa may tinh doron mc-d221</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>hxsj</t>
+          <t>doron</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>images/speaker/product_127695415.jpg</t>
+          <t>images/speaker/product_117916066.jpg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/8a/89/33/9a062c76cacb992f4caaf632e0328eee.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/4a/59/62/ee44eda734cddd9c8ab959fee71b193e.jpg</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>222130</v>
+        <v>190000</v>
       </c>
       <c r="G25" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="I25" t="n">
-        <v>127695419</v>
+        <v>117916067</v>
       </c>
       <c r="J25" t="n">
-        <v>837</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>127600345</v>
+        <v>108379905</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>may tro giang khong day takstar e261w khoang cach truyen 40m, cong suat cao 25w -tang tui đung may tro giang - hang chinh hang</t>
+          <t>loa ldk.ai</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>takstar</t>
+          <t>ldk ai</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>images/speaker/product_127600345.jpg</t>
+          <t>images/speaker/product_108379905.jpg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/05/b9/95/da3ede58bcd8d0556f3b1800a3ff342c.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/3d/63/49/9c62f731e04e0c0f52f0ca4dcfa16aaf.jpg</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1882000</v>
+        <v>69482</v>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="H26" t="n">
         <v>5</v>
       </c>
       <c r="I26" t="n">
-        <v>127600347</v>
+        <v>186755166</v>
       </c>
       <c r="J26" t="n">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>117916066</v>
+        <v>95469367</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>combo bo ba loa may tinh doron mc-d221 super bass , am thanh vom 9d - co đen led - hang nhap khau</t>
+          <t>loa e350</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>doron</t>
+          <t>leerfei</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>images/speaker/product_117916066.jpg</t>
+          <t>images/speaker/product_95469367.jpg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/4a/59/62/ee44eda734cddd9c8ab959fee71b193e.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/d6/c6/d1/e78834bc1c032a8132e5dfdc7ce132ad.jpg</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>190000</v>
+        <v>119800</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="H27" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>117916067</v>
+        <v>213920886</v>
       </c>
       <c r="J27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>108379905</v>
+        <v>88191430</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>loa may tinh game thu ldk.ai rgb 2.1 leefei - hang chinh hang</t>
+          <t>loa pkcb</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ldk ai</t>
+          <t>pkcb</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>images/speaker/product_108379905.jpg</t>
+          <t>images/speaker/product_88191430.jpg</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/3d/63/49/9c62f731e04e0c0f52f0ca4dcfa16aaf.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/99/4d/79/b0676eb236513f19df7c6ed8cee246f8.png</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>69482</v>
+        <v>110000</v>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="H28" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="I28" t="n">
-        <v>186755166</v>
+        <v>278114085</v>
       </c>
       <c r="J28" t="n">
         <v>7</v>
@@ -1567,51 +1567,51 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>95469367</v>
+        <v>82874789</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>loa go vi tinh e350 sound bar hd nho gon - hang nhap khau</t>
+          <t>loa pkcb ipx5</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>leerfei</t>
+          <t>pkcb</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>images/speaker/product_95469367.jpg</t>
+          <t>images/speaker/product_82874789.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/d6/c6/d1/e78834bc1c032a8132e5dfdc7ce132ad.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/25/5e/64/09e4922c8a0db92826bd8b8f4f50196b.png</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>119800</v>
+        <v>113000</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>213920886</v>
+        <v>278114038</v>
       </c>
       <c r="J29" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>88191430</v>
+        <v>82861299</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>loa bluetooth khong day sieu bass am thanh tram nghe nhac usb the nho - hang chinh hang pkcb</t>
+          <t>loa pkcb ipx5</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1621,25 +1621,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>images/speaker/product_88191430.jpg</t>
+          <t>images/speaker/product_82861299.jpg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/99/4d/79/b0676eb236513f19df7c6ed8cee246f8.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/7c/9b/f2/a8a310d6ef6f55e22667afe11eac32f9.png</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>110000</v>
+        <v>113000</v>
       </c>
       <c r="G30" t="n">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="H30" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I30" t="n">
-        <v>278114085</v>
+        <v>278113963</v>
       </c>
       <c r="J30" t="n">
         <v>7</v>
@@ -1647,11 +1647,11 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>82874789</v>
+        <v>77712221</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>loa bluetooth pkcb ban mo rong, chong nuoc ipx5 ho tro ket noi bluetooth ,the nho, usb - hang chinh hang</t>
+          <t>loa di đong</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1661,37 +1661,37 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>images/speaker/product_82874789.jpg</t>
+          <t>images/speaker/product_77712221.jpg</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/25/5e/64/09e4922c8a0db92826bd8b8f4f50196b.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/bb/02/92/a91902db7dcfe74da3a77620b40dec48.png</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>113000</v>
+        <v>1099980</v>
       </c>
       <c r="G31" t="n">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I31" t="n">
-        <v>278114038</v>
+        <v>278114036</v>
       </c>
       <c r="J31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>82861299</v>
+        <v>76062253</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>loa bluetooth pkcb ban mo rong, chong nuoc ipx5 ho tro ket noi bluetooth ,the nho, usb - hang chinh hang</t>
+          <t>loa littlefun</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1701,77 +1701,77 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>images/speaker/product_82861299.jpg</t>
+          <t>images/speaker/product_76062253.jpg</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/7c/9b/f2/a8a310d6ef6f55e22667afe11eac32f9.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/16/79/69/73301c5537dd015515173dcc927b11ce.png</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>113000</v>
+        <v>105000</v>
       </c>
       <c r="G32" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="I32" t="n">
-        <v>278113963</v>
+        <v>278113865</v>
       </c>
       <c r="J32" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>80959641</v>
+        <v>73204703</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>loa bluetooth pkcb ban mo rong, chong nuoc ipx5 ho tro ket noi bluetooth ,the nho, usb  - hang chinh hang</t>
+          <t>may tro giang shidu</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>pkcb</t>
+          <t>shidu</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>images/speaker/product_80959641.jpg</t>
+          <t>images/speaker/product_73204703.jpg</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/5d/9a/6b/f2c30a5b024048e110e4344d2ea03258.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/48/4d/71/062a0e4cb5435456d25d47d1299fba4a.jpg</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>113000</v>
+        <v>345000</v>
       </c>
       <c r="G33" t="n">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="H33" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="I33" t="n">
-        <v>278114030</v>
+        <v>192623141</v>
       </c>
       <c r="J33" t="n">
-        <v>6</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>77712221</v>
+        <v>57900120</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>loa bluetooth speaker loa di đong chip dps khuyech đai am thanh cong suat lon 50w ket noi tws len 100w  hang chinh hang</t>
+          <t>loa pkcb pf1002</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1781,77 +1781,77 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>images/speaker/product_77712221.jpg</t>
+          <t>images/speaker/product_57900120.jpg</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/bb/02/92/a91902db7dcfe74da3a77620b40dec48.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/aa/3e/77/4c6c49a705167ee147cdd156f8ed35f2.JPG</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1099980</v>
+        <v>105000</v>
       </c>
       <c r="G34" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>278114036</v>
+        <v>278113796</v>
       </c>
       <c r="J34" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>76062253</v>
+        <v>35278834</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>loa nghe nhac bluetooth khong day mini littlefun - hang chinh hang</t>
+          <t>loa sada v-196</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>pkcb</t>
+          <t>sada</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>images/speaker/product_76062253.jpg</t>
+          <t>images/speaker/product_35278834.jpg</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/16/79/69/73301c5537dd015515173dcc927b11ce.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/05/53/e5/99dc1f487ed104b6afad149ca645f565.jpg</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>105000</v>
+        <v>185000</v>
       </c>
       <c r="G35" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I35" t="n">
-        <v>278113865</v>
+        <v>73160376</v>
       </c>
       <c r="J35" t="n">
-        <v>8</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>73204703</v>
+        <v>13331940</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>may tro giang khong day shidu ket noi bang tan so cao cap, mic tro giang cho giao vien va huong dan vien du lich, loa tro giang cai ao tien loi, hang nhap khau</t>
+          <t>may tro giang shidu sd- m500uhf</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1861,145 +1861,145 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>images/speaker/product_73204703.jpg</t>
+          <t>images/speaker/product_13331940.jpg</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/48/4d/71/062a0e4cb5435456d25d47d1299fba4a.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/65/ab/9f/525e29895ddd0fd0bde89a56e71b7bd1.jpg</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>345000</v>
+        <v>798000</v>
       </c>
       <c r="G36" t="n">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="H36" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>192623141</v>
+        <v>197347629</v>
       </c>
       <c r="J36" t="n">
-        <v>179</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>57900120</v>
+        <v>6610413</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>loa bluetooth mini 5.0 nho gon pkcb pf1002 - hang chinh hang</t>
+          <t>đau jack ugreen 20503</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>pkcb</t>
+          <t>ugreen</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>images/speaker/product_57900120.jpg</t>
+          <t>images/speaker/product_6610413.jpg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/aa/3e/77/4c6c49a705167ee147cdd156f8ed35f2.JPG</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/bf/01/8e/b95612daa1611ffe07ad9b4a835f7185.jpg</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>105000</v>
+        <v>80000</v>
       </c>
       <c r="G37" t="n">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I37" t="n">
-        <v>278113796</v>
+        <v>12054171</v>
       </c>
       <c r="J37" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>35278834</v>
+        <v>104180</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>hang chinh hang- loa may vi tinh sada v-196, ho tro đen led, am thanh sieu tram</t>
+          <t>loa soundmax a-130</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>sada</t>
+          <t>soundmax</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>images/speaker/product_35278834.jpg</t>
+          <t>images/speaker/product_104180.jpg</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/05/53/e5/99dc1f487ed104b6afad149ca645f565.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/media/catalog/product/a/1/a1301_1.jpg</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>185000</v>
+        <v>194900</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H38" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="I38" t="n">
-        <v>73160376</v>
+        <v>108756420</v>
       </c>
       <c r="J38" t="n">
-        <v>1241</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>13331940</v>
+        <v>278149617</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>may tro giang shidu sd- m500uhf khong day - hang chinh hang</t>
+          <t>loa aux stereo surround</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>shidu</t>
+          <t>pkcb</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>images/speaker/product_13331940.jpg</t>
+          <t>images/speaker/product_278149617.jpg</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/65/ab/9f/525e29895ddd0fd0bde89a56e71b7bd1.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/e2/6d/f3/a4d4cab4832ad57cc0c85ee92a36b08f.png</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>798000</v>
+        <v>516000</v>
       </c>
       <c r="G39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>197347629</v>
+        <v>278149618</v>
       </c>
       <c r="J39" t="n">
         <v>2</v>
@@ -2007,199 +2007,199 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6610413</v>
+        <v>278067024</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>đau jack chuyen đoi am thanh tu cong 3.5mm cai sang cong 6.5mm đuc chinh hang ugreen 20503 - hang chinh hang</t>
+          <t>loa lg xboom</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ugreen</t>
+          <t>lg</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>images/speaker/product_6610413.jpg</t>
+          <t>images/speaker/product_278067024.jpg</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/bf/01/8e/b95612daa1611ffe07ad9b4a835f7185.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/31/28/77/2587ef3dae8c3aa997753a72b73abe03.jpeg</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>80000</v>
+        <v>3460000</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H40" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>12054171</v>
+        <v>278067025</v>
       </c>
       <c r="J40" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>104180</v>
+        <v>277771239</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>loa vi tinh soundmax a-130/2.0 6w</t>
+          <t>loa xiaomi speaker</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>soundmax</t>
+          <t>xiaomi</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>images/speaker/product_104180.jpg</t>
+          <t>images/speaker/product_277771239.jpg</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/media/catalog/product/a/1/a1301_1.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/eb/51/88/63574fc61cf5b9c8c9e01ae5514d73e0.JPG</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>194900</v>
+        <v>2020000</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>108756420</v>
+        <v>277771240</v>
       </c>
       <c r="J41" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>278149617</v>
+        <v>277582223</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>loa bluetooth 5.3 pkcb 30w super bass tws len 60w tf card/ line in 3.5mm / aux stereo surround, loa khong day nghe nhac pin 3000mah - hang chinh hang</t>
+          <t>loa vi tinh</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>pkcb</t>
+          <t>luckyjqr</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>images/speaker/product_278149617.jpg</t>
+          <t>images/speaker/product_277582223.jpg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/e2/6d/f3/a4d4cab4832ad57cc0c85ee92a36b08f.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/8b/9e/01/ac46c1067fc008f6d897b951f8f9a088.jpg</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>516000</v>
+        <v>156800</v>
       </c>
       <c r="G42" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>278149618</v>
+        <v>277582224</v>
       </c>
       <c r="J42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>278067024</v>
+        <v>277581685</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>loa bluetooth lg xboom grab - hang chinh hang</t>
+          <t>bo 3 loa may tinh d222</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>lg</t>
+          <t>doron</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>images/speaker/product_278067024.jpg</t>
+          <t>images/speaker/product_277581685.jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/31/28/77/2587ef3dae8c3aa997753a72b73abe03.jpeg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/6c/bb/f3/8df7e1cfc10ff1188f958e4f4ad99ac7.jpg</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3460000</v>
+        <v>213400</v>
       </c>
       <c r="G43" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>278067025</v>
+        <v>277581697</v>
       </c>
       <c r="J43" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>277771239</v>
+        <v>277421606</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>loa bluetooth xiaomi speaker - giaphucstore | hang chinh hang</t>
+          <t>loa bossinon w-am5579ak</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>xiaomi</t>
+          <t>bossinon</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>images/speaker/product_277771239.jpg</t>
+          <t>images/speaker/product_277421606.jpg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/eb/51/88/63574fc61cf5b9c8c9e01ae5514d73e0.JPG</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/53/a2/08/4f321920e08c28fa85ac45135906871f.jpg</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2020000</v>
+        <v>11570000</v>
       </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>277771240</v>
+        <v>277421607</v>
       </c>
       <c r="J44" t="n">
         <v>7</v>
@@ -2207,159 +2207,159 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>277582223</v>
+        <v>276856800</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>loa vi tinh đe ban cho laptop, pc, đien thoai mau đen - hang nhap khau</t>
+          <t>loa dalton k210c</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>luckyjqr</t>
+          <t>dalton</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>images/speaker/product_277582223.jpg</t>
+          <t>images/speaker/product_276856800.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/8b/9e/01/ac46c1067fc008f6d897b951f8f9a088.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/63/8d/8f/148eceabb190aeb9124d7adefa32e967.jpg</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>156800</v>
+        <v>12870000</v>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>277582224</v>
+        <v>276856801</v>
       </c>
       <c r="J45" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>277581685</v>
+        <v>276253446</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>bo 3 loa may tinh d222 co đen led, am thanh 9d chat luong tot, nghe nhac hay -  hang nhap khau</t>
+          <t>may tro giang aporo t28 uhf</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>doron</t>
+          <t>aporo</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>images/speaker/product_277581685.jpg</t>
+          <t>images/speaker/product_276253446.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/6c/bb/f3/8df7e1cfc10ff1188f958e4f4ad99ac7.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/d0/93/77/dc03bbcf2e351eed632da89a6256e986.jpg</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>213400</v>
+        <v>1265000</v>
       </c>
       <c r="G46" t="n">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I46" t="n">
-        <v>277581697</v>
+        <v>276253458</v>
       </c>
       <c r="J46" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>277421606</v>
+        <v>276253314</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>loa keo cong suat lon bass 50 đon bossinon w-am5579ak- cong suat 1.200w- hang chinh hang</t>
+          <t>loa aporo t20 uhf2</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>bossinon</t>
+          <t>aporo</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>images/speaker/product_277421606.jpg</t>
+          <t>images/speaker/product_276253314.jpg</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/53/a2/08/4f321920e08c28fa85ac45135906871f.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a8/d9/2e/25715bc40be52256883ddeef3d74be96.jpg</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>11570000</v>
+        <v>785000</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="I47" t="n">
-        <v>277421607</v>
+        <v>276253315</v>
       </c>
       <c r="J47" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>276856800</v>
+        <v>276251942</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>loa karaoke dalton k210c cong suat 850w, 2 bass 10 inches - hang chinh hang ( bao hanh 12 thang )</t>
+          <t>loa bossinon w-am5578k</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>dalton</t>
+          <t>bossinon</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>images/speaker/product_276856800.jpg</t>
+          <t>images/speaker/product_276251942.jpg</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/63/8d/8f/148eceabb190aeb9124d7adefa32e967.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/b3/8f/11/52b6b1a6e279c0fe706191ad28f2dea5.jpg</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>12870000</v>
+        <v>11570000</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>276856801</v>
+        <v>276251943</v>
       </c>
       <c r="J48" t="n">
         <v>7</v>
@@ -2367,159 +2367,159 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>276253446</v>
+        <v>275855621</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>may tro giang khong day aporo t28 uhf co chong nuoc ip67 cong suat lon hang chinh hang</t>
+          <t>loa logitech ultimate ears everboom</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>aporo</t>
+          <t>logitech</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>images/speaker/product_276253446.jpg</t>
+          <t>images/speaker/product_275855621.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/d0/93/77/dc03bbcf2e351eed632da89a6256e986.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/2c/30/05/1dcfebb38150c2477c71db6423f6704f.jpg</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1265000</v>
+        <v>4240000</v>
       </c>
       <c r="G49" t="n">
+        <v>34</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>275855678</v>
+      </c>
+      <c r="J49" t="n">
         <v>2</v>
-      </c>
-      <c r="H49" t="n">
-        <v>5</v>
-      </c>
-      <c r="I49" t="n">
-        <v>276253458</v>
-      </c>
-      <c r="J49" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>276253314</v>
+        <v>275467638</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>may tro giang khong đay aporo  t20 uhf2.4g hang chinh hang cho giao vien</t>
+          <t>loa icore mini</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>aporo</t>
+          <t>icore</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>images/speaker/product_276253314.jpg</t>
+          <t>images/speaker/product_275467638.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a8/d9/2e/25715bc40be52256883ddeef3d74be96.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/79/22/59/82d6179545f64ec16342dcecad8d251f.png</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>785000</v>
+        <v>99000</v>
       </c>
       <c r="G50" t="n">
         <v>4</v>
       </c>
       <c r="H50" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="I50" t="n">
-        <v>276253315</v>
+        <v>275467639</v>
       </c>
       <c r="J50" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>276251942</v>
+        <v>274943200</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>loa keo 5 tac bossinon w-am5578k - _kich thuoc: 510 (w) x 510 (d) x 840 (h)mm _cong suat: 1200watts- hang chinh hang</t>
+          <t>loa</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>bossinon</t>
+          <t>nha cua me</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>images/speaker/product_276251942.jpg</t>
+          <t>images/speaker/product_274943200.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/b3/8f/11/52b6b1a6e279c0fe706191ad28f2dea5.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/4f/60/16/e745b03f6bb85cf2c723c303447e653d.jpeg</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>11570000</v>
+        <v>248805</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="I51" t="n">
-        <v>276251943</v>
+        <v>274943201</v>
       </c>
       <c r="J51" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>275855621</v>
+        <v>274046847</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>loa logitech bluetooth ultimate ears everboom - chong nuoc ip67 -  hang chinh hang</t>
+          <t>loa alpha works w88</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>logitech</t>
+          <t>alpha works</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>images/speaker/product_275855621.jpg</t>
+          <t>images/speaker/product_274046847.jpg</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/2c/30/05/1dcfebb38150c2477c71db6423f6704f.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/f4/20/9e/44c3280f221bf38dc46d7c4a14014c88.jpg</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>4240000</v>
+        <v>1960000</v>
       </c>
       <c r="G52" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>275855678</v>
+        <v>274047597</v>
       </c>
       <c r="J52" t="n">
         <v>2</v>
@@ -2527,439 +2527,439 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>275467638</v>
+        <v>273084814</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>loa bluetooth icore mini - hang chinh hang</t>
+          <t>loa qixi sk-2036</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>icore</t>
+          <t>knstar</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>images/speaker/product_275467638.jpg</t>
+          <t>images/speaker/product_273084814.jpg</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/79/22/59/82d6179545f64ec16342dcecad8d251f.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/aa/44/db/3efe0d42e1a1fe9e434febdee93c5124.jpg</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>99000</v>
+        <v>790000</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H53" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="I53" t="n">
-        <v>275467639</v>
+        <v>273084815</v>
       </c>
       <c r="J53" t="n">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>275254778</v>
+        <v>273054021</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>oa may tro giang chinh hang aporo t18 2.4g plus, t25 2.4g, hang chinh hang  (bao hanh 12 thang qua khuyen mai)</t>
+          <t>loa suyosd ys-230</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>aporo</t>
+          <t>suyosd</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>images/speaker/product_275254778.jpg</t>
+          <t>images/speaker/product_273054021.jpg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/f9/71/7c/1d408941370d1b781efa8302801bfbb5.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/b6/8e/8f/c09fdaa1f3835ea67a281eda20f6d952.jpg</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>271600</v>
+        <v>540000</v>
       </c>
       <c r="G54" t="n">
+        <v>8</v>
+      </c>
+      <c r="H54" t="n">
         <v>3</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
-        <v>275255053</v>
+        <v>273054022</v>
       </c>
       <c r="J54" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>274943200</v>
+        <v>241639907</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>loa phong thanh, loa ban hang co ghi am, phat lai co cong usb - hang chinh hang</t>
+          <t>loa marshall acton iii</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>nha cua me</t>
+          <t>marshall</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>images/speaker/product_274943200.jpg</t>
+          <t>images/speaker/product_241639907.jpg</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/4f/60/16/e745b03f6bb85cf2c723c303447e653d.jpeg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/24/d6/c9/d6a4308749e746113d8895208183866d.jpg</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>248805</v>
+        <v>7820000</v>
       </c>
       <c r="G55" t="n">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="H55" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="I55" t="n">
-        <v>274943201</v>
+        <v>241639923</v>
       </c>
       <c r="J55" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>274046847</v>
+        <v>210138061</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>loa bluetooth alpha works w88 - hang chinh hang</t>
+          <t>loa logitech z313</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>alpha works</t>
+          <t>logitech</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>images/speaker/product_274046847.jpg</t>
+          <t>images/speaker/product_210138061.jpg</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/f4/20/9e/44c3280f221bf38dc46d7c4a14014c88.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ae/91/8f/da146d4bd995ba29eea1af24a7d4bc7e.jpg</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1960000</v>
+        <v>919000</v>
       </c>
       <c r="G56" t="n">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>274047597</v>
+        <v>210138062</v>
       </c>
       <c r="J56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>273084814</v>
+        <v>184077032</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>loa bluetooth karaoke  qixi sk-2036 , tang kem 2 micro khong day cao cap , hat karaoke nghe nhac bass manh -hang chinh hang</t>
+          <t>loa soundmax r-800</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>knstar</t>
+          <t>soundmax</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>images/speaker/product_273084814.jpg</t>
+          <t>images/speaker/product_184077032.jpg</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/aa/44/db/3efe0d42e1a1fe9e434febdee93c5124.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/e1/bb/25/6c763d6fe5cf89a21d54032b18d158b4.PNG</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>790000</v>
+        <v>960000</v>
       </c>
       <c r="G57" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="H57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I57" t="n">
-        <v>273084815</v>
+        <v>184077033</v>
       </c>
       <c r="J57" t="n">
-        <v>53</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>273054021</v>
+        <v>176167334</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>loa bluetooth karaoke suyosd ys-230 kem 2 micro khong day -hang chinh hang</t>
+          <t>loa icore b500</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>suyosd</t>
+          <t>icore</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>images/speaker/product_273054021.jpg</t>
+          <t>images/speaker/product_176167334.jpg</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/b6/8e/8f/c09fdaa1f3835ea67a281eda20f6d952.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/81/c2/c2/1b6103d5dfcdacb81832e15b723a84d0.png</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>540000</v>
+        <v>817000</v>
       </c>
       <c r="G58" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I58" t="n">
-        <v>273054022</v>
+        <v>176167335</v>
       </c>
       <c r="J58" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>241639907</v>
+        <v>172369953</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>loa bluetooth marshall acton iii - hang chinh hang</t>
+          <t>loa pkcb</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>marshall</t>
+          <t>pkcb</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>images/speaker/product_241639907.jpg</t>
+          <t>images/speaker/product_172369953.jpg</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/24/d6/c9/d6a4308749e746113d8895208183866d.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/e4/e5/c1/4684a13cbc1f69f41e7581b41c0be5b3.png</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>7820000</v>
+        <v>2091000</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H59" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>241639923</v>
+        <v>278114037</v>
       </c>
       <c r="J59" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>210138061</v>
+        <v>165345530</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>loa vi tinh cao cap logitech z313 2.1 loa sieu tram nho gon - hang chinh hang</t>
+          <t>loa jbl charge 5</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>logitech</t>
+          <t>jbl</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>images/speaker/product_210138061.jpg</t>
+          <t>images/speaker/product_165345530.jpg</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ae/91/8f/da146d4bd995ba29eea1af24a7d4bc7e.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/7a/5d/de/45f98f9df23d45846c62f15f013620ea.jpg</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>919000</v>
+        <v>4110000</v>
       </c>
       <c r="G60" t="n">
         <v>3</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I60" t="n">
-        <v>210138062</v>
+        <v>165345542</v>
       </c>
       <c r="J60" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>184077032</v>
+        <v>165025828</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>loa bluetooth soundmax r-800 - hang chinh hang</t>
+          <t>loa kpd-1087</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>soundmax</t>
+          <t>khoncc</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>images/speaker/product_184077032.jpg</t>
+          <t>images/speaker/product_165025828.jpg</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/e1/bb/25/6c763d6fe5cf89a21d54032b18d158b4.PNG</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/1a/fc/38/cbe0ce951152f690f16185bac4ca68ce.jpg</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>960000</v>
+        <v>124000</v>
       </c>
       <c r="G61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>184077033</v>
+        <v>165025829</v>
       </c>
       <c r="J61" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>176167334</v>
+        <v>152521511</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>loa bluetooth co đen icore b500 - hang chinh hang</t>
+          <t>loa hoco hc3</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>icore</t>
+          <t>hoco</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>images/speaker/product_176167334.jpg</t>
+          <t>images/speaker/product_152521511.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/81/c2/c2/1b6103d5dfcdacb81832e15b723a84d0.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a0/94/bd/94b89ece87f59fd9ae7ff61af0ea7e07.jpg</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>817000</v>
+        <v>309260</v>
       </c>
       <c r="G62" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H62" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>176167335</v>
+        <v>242298465</v>
       </c>
       <c r="J62" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>172369953</v>
+        <v>145717791</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>loa bluetooth pkcb ban mo rong, chip dsp, ho tro ket noi bluetooth, usb, the nho,  day 3.5mm 100w tws am thanh song đong - hang chinh hang</t>
+          <t>loa ms210</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>pkcb</t>
+          <t>microlab</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>images/speaker/product_172369953.jpg</t>
+          <t>images/speaker/product_145717791.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/e4/e5/c1/4684a13cbc1f69f41e7581b41c0be5b3.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/2e/cd/e8/ead32e20ebde11f76c65ea5f7abf3a72.jpg</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2091000</v>
+        <v>429000</v>
       </c>
       <c r="G63" t="n">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="I63" t="n">
-        <v>278114037</v>
+        <v>213862709</v>
       </c>
       <c r="J63" t="n">
         <v>7</v>
@@ -2967,199 +2967,199 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>165345530</v>
+        <v>123926245</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>loa bluetooth jbl charge 5 jblcharge5 - hang chinh hang</t>
+          <t>loa soundmax a160</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>jbl</t>
+          <t>soundmax</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>images/speaker/product_165345530.jpg</t>
+          <t>images/speaker/product_123926245.jpg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/7a/5d/de/45f98f9df23d45846c62f15f013620ea.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/2d/a5/95/bc5840dc1bbf7d717c067089b9a4a53e.jpg</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>4110000</v>
+        <v>242000</v>
       </c>
       <c r="G64" t="n">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="H64" t="n">
         <v>5</v>
       </c>
       <c r="I64" t="n">
-        <v>165345542</v>
+        <v>183553211</v>
       </c>
       <c r="J64" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>165025828</v>
+        <v>117987260</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>(nghe to) loa cong huong khuech đai am thanh khoncc hang chinh hang - vua gia đo đien thoai chac chan - kpd-1087-loach</t>
+          <t>loa doron v-196</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>khoncc</t>
+          <t>doron</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>images/speaker/product_165025828.jpg</t>
+          <t>images/speaker/product_117987260.jpg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/1a/fc/38/cbe0ce951152f690f16185bac4ca68ce.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/0e/d1/ee/53f6046bf6dea3a962012f752d679134.jpg</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>124000</v>
+        <v>190000</v>
       </c>
       <c r="G65" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="I65" t="n">
-        <v>165025829</v>
+        <v>117987264</v>
       </c>
       <c r="J65" t="n">
-        <v>7</v>
+        <v>686</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>152521511</v>
+        <v>95866327</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>loa bluetooth hoco hc3 v5.0 - loa the thao khong day cao cap am thanh song đong tuong thich nhieu thiet bi - hang chinh hang</t>
+          <t>loa soundmax a140</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>hoco</t>
+          <t>soundmax</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>images/speaker/product_152521511.jpg</t>
+          <t>images/speaker/product_95866327.jpg</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a0/94/bd/94b89ece87f59fd9ae7ff61af0ea7e07.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/85/e2/e4/fd13ceb7f2e584a754bb3635d9c619e8.png</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>309260</v>
+        <v>286150</v>
       </c>
       <c r="G66" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I66" t="n">
-        <v>242298465</v>
+        <v>183553889</v>
       </c>
       <c r="J66" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>145717791</v>
+        <v>66758390</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>loa bluetooth microlab ms210 - hang chinh hang</t>
+          <t>loa ipx56</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>microlab</t>
+          <t>uslion</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>images/speaker/product_145717791.jpg</t>
+          <t>images/speaker/product_66758390.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/2e/cd/e8/ead32e20ebde11f76c65ea5f7abf3a72.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/1e/f5/7c/3ac79b78b48ac50309c28b00c0a2159a.jpg</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>429000</v>
+        <v>281060</v>
       </c>
       <c r="G67" t="n">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="H67" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="I67" t="n">
-        <v>213862709</v>
+        <v>66758396</v>
       </c>
       <c r="J67" t="n">
-        <v>7</v>
+        <v>269</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>123926245</v>
+        <v>58393093</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>loa may tinh latop soundmax a160 - hang chinh hang</t>
+          <t>loa ipx5</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>soundmax</t>
+          <t>pkcb</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>images/speaker/product_123926245.jpg</t>
+          <t>images/speaker/product_58393093.jpg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/2d/a5/95/bc5840dc1bbf7d717c067089b9a4a53e.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/64/4a/25/24582295fa73f7aa02c5e35828ffd8d8.png</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>242000</v>
+        <v>1100950</v>
       </c>
       <c r="G68" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H68" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>183553211</v>
+        <v>278113966</v>
       </c>
       <c r="J68" t="n">
         <v>3</v>
@@ -3167,1321 +3167,1121 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>117987260</v>
+        <v>57523356</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>loa may tinh doron v-196 - am thanh sieu tram 4d, bass em - hang chinh hang</t>
+          <t>loa mini tws 5.0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>doron</t>
+          <t>pkcb</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>images/speaker/product_117987260.jpg</t>
+          <t>images/speaker/product_57523356.jpg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/0e/d1/ee/53f6046bf6dea3a962012f752d679134.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/91/d3/eb/68764a81681fdffda614077839287523.png</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>190000</v>
+        <v>97000</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H69" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>117987264</v>
+        <v>278114029</v>
       </c>
       <c r="J69" t="n">
-        <v>686</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>95866327</v>
+        <v>55508641</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>loa vi tinh 2.0 soundmax a140 tong cong suat</t>
+          <t>loa bts-103bk</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>soundmax</t>
+          <t>energizer</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>images/speaker/product_95866327.jpg</t>
+          <t>images/speaker/product_55508641.jpg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/85/e2/e4/fd13ceb7f2e584a754bb3635d9c619e8.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/5b/a4/2d/f1f222139cefca25124323dbea50bd7c.jpg</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>286150</v>
+        <v>379000</v>
       </c>
       <c r="G70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="I70" t="n">
-        <v>183553889</v>
+        <v>55508645</v>
       </c>
       <c r="J70" t="n">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>75301142</v>
+        <v>50322624</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>loa bluetooth khong day speaker nghe usb the nho cao cap hang chinh hang</t>
+          <t>loa hoco bs33</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>pkcb</t>
+          <t>hoco</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>images/speaker/product_75301142.jpg</t>
+          <t>images/speaker/product_50322624.jpg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/9d/03/1b/6411a9d17b163c8f40e31547fd3aa77d.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/4e/12/43/ad8a853771e3ecc8de6e326615029abf.jpg</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>475000</v>
+        <v>270630</v>
       </c>
       <c r="G71" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H71" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="I71" t="n">
-        <v>278114031</v>
+        <v>90583764</v>
       </c>
       <c r="J71" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>66758390</v>
+        <v>48576455</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>loa bluetooth ipx56 plus ban mo rong, chong nuoc, am thanh bass cuc manh. ho tro ket noi bluetooth 5.0, micro nhieu mau sac - hang chinh hang</t>
+          <t>may tro giang unizone uz-u2</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>uslion</t>
+          <t>unizone</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>images/speaker/product_66758390.jpg</t>
+          <t>images/speaker/product_48576455.jpg</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/1e/f5/7c/3ac79b78b48ac50309c28b00c0a2159a.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a0/2c/d9/7ef61760de3f8acfc2359a68f76a1399.jpg</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>281060</v>
+        <v>2809000</v>
       </c>
       <c r="G72" t="n">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="H72" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="I72" t="n">
-        <v>66758396</v>
+        <v>71909414</v>
       </c>
       <c r="J72" t="n">
-        <v>269</v>
+        <v>59</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>58393093</v>
+        <v>47099726</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>loa bluetooth 60w cong suat lon super bass chong nuoc ipx5 pin 6600mah sac nhanh type c cong nghe ai hang chinh hang pkcb</t>
+          <t>loa zealot s1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>pkcb</t>
+          <t>zealot</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>images/speaker/product_58393093.jpg</t>
+          <t>images/speaker/product_47099726.jpg</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/64/4a/25/24582295fa73f7aa02c5e35828ffd8d8.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/61/84/69/68ce542f043bcd9eec7af2427f4b3f93.png</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1100950</v>
+        <v>320000</v>
       </c>
       <c r="G73" t="n">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="I73" t="n">
-        <v>278113966</v>
+        <v>101206149</v>
       </c>
       <c r="J73" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>57523356</v>
+        <v>21430781</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>loa bluetooth mini tws 5.0  wireless khong day - [hang chinh hang</t>
+          <t>may tro giang shidu sd-s358</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>pkcb</t>
+          <t>shidu</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>images/speaker/product_57523356.jpg</t>
+          <t>images/speaker/product_21430781.jpg</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/91/d3/eb/68764a81681fdffda614077839287523.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a1/33/8a/e99d2cb1a2acf4bd4161188143d3ddb0.jpg</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>97000</v>
+        <v>390000</v>
       </c>
       <c r="G74" t="n">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="I74" t="n">
-        <v>278114029</v>
+        <v>21430785</v>
       </c>
       <c r="J74" t="n">
-        <v>1</v>
+        <v>175</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>55508641</v>
+        <v>17539156</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>loa bluetooth kem pin sac du phong energizer bts-103bk, ho tro chuc nang ranh tay, fm, the micro sd, usb, aux - hang chinh hang</t>
+          <t>loa craven 836</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>energizer</t>
+          <t>craven</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>images/speaker/product_55508641.jpg</t>
+          <t>images/speaker/product_17539156.jpg</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/5b/a4/2d/f1f222139cefca25124323dbea50bd7c.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/96/d5/30/3a54cd47abd8c4b2ba30575e9f732e4c.jpg</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>379000</v>
+        <v>159799</v>
       </c>
       <c r="G75" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="H75" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="I75" t="n">
-        <v>55508645</v>
+        <v>95966169</v>
       </c>
       <c r="J75" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>50322624</v>
+        <v>2013189</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>loa bluetooth khong day hoco bs33 - hang chinh hang</t>
+          <t>may nghe nhac ruizu x02</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>hoco</t>
+          <t>ruizu</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>images/speaker/product_50322624.jpg</t>
+          <t>images/speaker/product_2013189.jpg</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/4e/12/43/ad8a853771e3ecc8de6e326615029abf.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/60/a1/3e/980edbcd9df066f5d6a4dd28e8759bbd.jpg</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>270630</v>
+        <v>420000</v>
       </c>
       <c r="G76" t="n">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="H76" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>90583764</v>
+        <v>34414827</v>
       </c>
       <c r="J76" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>48576455</v>
+        <v>278149668</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>may tro giang unizone uz-u2 - may tro giang khong day han quoc chinh hang moi nhat 2020</t>
+          <t>loa 5.3 pkcb</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>unizone</t>
+          <t>pkcb</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>images/speaker/product_48576455.jpg</t>
+          <t>images/speaker/product_278149668.jpg</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a0/2c/d9/7ef61760de3f8acfc2359a68f76a1399.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/4e/ae/eb/c6b4280801140832c7bbd7a7c886f451.png</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2809000</v>
+        <v>563000</v>
       </c>
       <c r="G77" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="H77" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>71909414</v>
+        <v>278149669</v>
       </c>
       <c r="J77" t="n">
-        <v>59</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>47099726</v>
+        <v>277521161</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>loa bluetooth kiem pin sac du phong zealot s1 – hang nhap khau</t>
+          <t>loa nanomax sk-12x5</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>zealot</t>
+          <t>nanomax</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>images/speaker/product_47099726.jpg</t>
+          <t>images/speaker/product_277521161.jpg</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/61/84/69/68ce542f043bcd9eec7af2427f4b3f93.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/4c/0e/16/256140f14845bbd0043c25b416409546.jpg</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>320000</v>
+        <v>2940000</v>
       </c>
       <c r="G78" t="n">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="H78" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I78" t="n">
-        <v>101206149</v>
+        <v>277521162</v>
       </c>
       <c r="J78" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>21430781</v>
+        <v>276747066</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>may tro giang shidu sd-s358 - hang chinh hang</t>
+          <t>loa anker soundcore select 4 go a31x1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>shidu</t>
+          <t>anker</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>images/speaker/product_21430781.jpg</t>
+          <t>images/speaker/product_276747066.jpg</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a1/33/8a/e99d2cb1a2acf4bd4161188143d3ddb0.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/0b/2b/72/aeccf4038fc189c6a55f98d4ecb40367.jpg</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>390000</v>
+        <v>469000</v>
       </c>
       <c r="G79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H79" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="I79" t="n">
-        <v>21430785</v>
+        <v>277527260</v>
       </c>
       <c r="J79" t="n">
-        <v>175</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>17539156</v>
+        <v>276280160</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>loa nghe nhac usb, the nho craven 836 2pin (mau ngau nhien) - hang nhap khau</t>
+          <t>loa bts081bk</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>craven</t>
+          <t>enegizer</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>images/speaker/product_17539156.jpg</t>
+          <t>images/speaker/product_276280160.jpg</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/96/d5/30/3a54cd47abd8c4b2ba30575e9f732e4c.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/29/c8/88/672676a6876a999b490aeb9ff1a4d2f4.png</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>159799</v>
+        <v>625100</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H80" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>95966169</v>
+        <v>276280161</v>
       </c>
       <c r="J80" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2013189</v>
+        <v>276075423</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>may nghe nhac mp3 ruizu x02 8gb - hang chinh hang</t>
+          <t>loa marshall emberton iii portable</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>ruizu</t>
+          <t>marshall</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>images/speaker/product_2013189.jpg</t>
+          <t>images/speaker/product_276075423.jpg</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/60/a1/3e/980edbcd9df066f5d6a4dd28e8759bbd.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/0a/a3/eb/cc5756b3acc619c0ec6194d8d393dd62.jpg</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>420000</v>
+        <v>5270000</v>
       </c>
       <c r="G81" t="n">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>34414827</v>
+        <v>275946291</v>
       </c>
       <c r="J81" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>278149668</v>
+        <v>276046012</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>loa bluetooth 5.3 pkcb 20w super bass tws len 40w tf card/ line in 3.5mm / aux stereo surround, loa khong day nghe nhac pin 3000mah - hang chinh hang</t>
+          <t>loa at-100</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>pkcb</t>
+          <t>soundmax</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>images/speaker/product_278149668.jpg</t>
+          <t>images/speaker/product_276046012.jpg</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/4e/ae/eb/c6b4280801140832c7bbd7a7c886f451.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/15/66/99/24495a61cc5adee6633a71ab376291e2.PNG</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>563000</v>
+        <v>309260</v>
       </c>
       <c r="G82" t="n">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>278149669</v>
+        <v>276046013</v>
       </c>
       <c r="J82" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>277521161</v>
+        <v>275855728</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>loa keo nanomax sk-12x5 ( xam ) bass 30cm 400w karaoke bluetooth tang kem 2 mic hat karaoke. hang chinh hang</t>
+          <t>loa boom 4</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>nanomax</t>
+          <t>logitech</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>images/speaker/product_277521161.jpg</t>
+          <t>images/speaker/product_275855728.jpg</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/4c/0e/16/256140f14845bbd0043c25b416409546.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/60/63/0f/1f466960d49010f990dac10986b4396b.jpg</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2940000</v>
+        <v>3440000</v>
       </c>
       <c r="G83" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="H83" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>277521162</v>
+        <v>275855762</v>
       </c>
       <c r="J83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>276747066</v>
+        <v>275761136</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>loa bluetooth anker soundcore select 4 go a31x1 - hang chinh hang</t>
+          <t>loa jbl go 4</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>anker</t>
+          <t>jbl</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>images/speaker/product_276747066.jpg</t>
+          <t>images/speaker/product_275761136.jpg</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/0b/2b/72/aeccf4038fc189c6a55f98d4ecb40367.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/01/3d/6f/5bd28a932f6142ad2dc67501212ce17a.jpg</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>469000</v>
+        <v>1144600</v>
       </c>
       <c r="G84" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="H84" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>277527260</v>
+        <v>275761146</v>
       </c>
       <c r="J84" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>276280160</v>
+        <v>275130480</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>loa bluetooth di đong energizer bts081bk, bao hanh 24 thang 1 đoi 1 - hang chinh hang</t>
+          <t>loa jbl xtreme 4</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>enegizer</t>
+          <t>jbl</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>images/speaker/product_276280160.jpg</t>
+          <t>images/speaker/product_275130480.jpg</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/29/c8/88/672676a6876a999b490aeb9ff1a4d2f4.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/84/3c/8a/0eeb030957b6eb401a54461e01a8eb3d.png</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>625100</v>
+        <v>7760000</v>
       </c>
       <c r="G85" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I85" t="n">
-        <v>276280161</v>
+        <v>275131418</v>
       </c>
       <c r="J85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>276075423</v>
+        <v>274408482</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>[new arrival] loa bluetooth marshall emberton iii portable - hang chinh hang</t>
+          <t>cu loa</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>marshall</t>
+          <t>18 sound</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>images/speaker/product_276075423.jpg</t>
+          <t>images/speaker/product_274408482.jpg</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/0a/a3/eb/cc5756b3acc619c0ec6194d8d393dd62.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/da/17/ff/a5d985db539810b089b6f8837f9e465a.jpg</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>5270000</v>
+        <v>5850000</v>
       </c>
       <c r="G86" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>275946291</v>
+        <v>274408483</v>
       </c>
       <c r="J86" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>276046012</v>
+        <v>274165805</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>loa bluetooth soundmax  at-100 - hang chinh hang</t>
+          <t>loa s2025</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>soundmax</t>
+          <t>x bass</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>images/speaker/product_276046012.jpg</t>
+          <t>images/speaker/product_274165805.jpg</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/15/66/99/24495a61cc5adee6633a71ab376291e2.PNG</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/72/ef/fb/51597e709a5bfa7d35042f3cbd0883d2.jpg</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>309260</v>
+        <v>330000</v>
       </c>
       <c r="G87" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>276046013</v>
+        <v>274165806</v>
       </c>
       <c r="J87" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>275855728</v>
+        <v>273959250</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>loa bluetooth logitech ultimate ears boom 4 - chong nuoc, bui - hang chinh hang</t>
+          <t>loa wekome beluga d10</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>logitech</t>
+          <t>wekome</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>images/speaker/product_275855728.jpg</t>
+          <t>images/speaker/product_273959250.jpg</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/60/63/0f/1f466960d49010f990dac10986b4396b.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/60/9e/9b/fcb6d02454682f82ce3e50295d20dc70.jpg</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>3440000</v>
+        <v>2249000</v>
       </c>
       <c r="G88" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I88" t="n">
-        <v>275855762</v>
+        <v>273959251</v>
       </c>
       <c r="J88" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>275761136</v>
+        <v>273602049</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>loa bluetooth jbl go 4 jblgo4 - hang chinh hang</t>
+          <t>loa sk-15d2</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>jbl</t>
+          <t>nanomax</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>images/speaker/product_275761136.jpg</t>
+          <t>images/speaker/product_273602049.jpg</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/01/3d/6f/5bd28a932f6142ad2dc67501212ce17a.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/97/a7/88/28357b633fd65e46d91711916432d019.jpg</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1144600</v>
+        <v>4772600</v>
       </c>
       <c r="G89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>275761146</v>
+        <v>276289901</v>
       </c>
       <c r="J89" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>275130480</v>
+        <v>273328383</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>loa bluetooth jbl xtreme 4 - hang chinh hang</t>
+          <t>loa harman kardon</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>jbl</t>
+          <t>harman kardon</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>images/speaker/product_275130480.jpg</t>
+          <t>images/speaker/product_273328383.jpg</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/84/3c/8a/0eeb030957b6eb401a54461e01a8eb3d.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/06/3e/cb/55c0a3a5bc68f1094a16ec06a71209f7.jpg</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>7760000</v>
+        <v>5853000</v>
       </c>
       <c r="G90" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
         <v>5</v>
       </c>
       <c r="I90" t="n">
-        <v>275131418</v>
+        <v>273328463</v>
       </c>
       <c r="J90" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>274408482</v>
+        <v>272286025</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>12lw801 cu loa bass 12inch - 3 tac ferrite 500w 8ω 18 sound-hang chinh hang</t>
+          <t>loa logitech z407</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>18 sound</t>
+          <t>logitech</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>images/speaker/product_274408482.jpg</t>
+          <t>images/speaker/product_272286025.jpg</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/da/17/ff/a5d985db539810b089b6f8837f9e465a.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/82/64/36/68cf6b5918670c2827d3ddfe83a7c583.png</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>5850000</v>
+        <v>1882000</v>
       </c>
       <c r="G91" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>274408483</v>
+        <v>272286072</v>
       </c>
       <c r="J91" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>274165805</v>
+        <v>271966725</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>loa bluetooth s2025 ket noi khong day, am thanh vuot troi đang cap khong gian-hang chinh hang</t>
+          <t>loa sony srs-xb100</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>x bass</t>
+          <t>sony</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>images/speaker/product_274165805.jpg</t>
+          <t>images/speaker/product_271966725.jpg</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/72/ef/fb/51597e709a5bfa7d35042f3cbd0883d2.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/f7/03/20/26ace5ca62627dcff2e7d73fadd7a0e2.jpg</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>330000</v>
+        <v>1060000</v>
       </c>
       <c r="G92" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="I92" t="n">
-        <v>274165806</v>
+        <v>272110302</v>
       </c>
       <c r="J92" t="n">
-        <v>3</v>
+        <v>128</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>273959250</v>
+        <v>271829222</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>loa bluetooth wekome beluga d10 - ket noi bluetooth 5.3 the he moi, thiet ke tinh te, sang trong,  am thanh cuc đinh - hang chinh hang</t>
+          <t>loa mini sothing dw13</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>wekome</t>
+          <t>sothing xiangwu</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>images/speaker/product_273959250.jpg</t>
+          <t>images/speaker/product_271829222.jpg</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/60/9e/9b/fcb6d02454682f82ce3e50295d20dc70.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/b5/15/84/ca4d8e7f99b81b49247c4c70e25a1e28.jpg</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>2249000</v>
+        <v>169000</v>
       </c>
       <c r="G93" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>272254696</v>
+      </c>
+      <c r="J93" t="n">
         <v>2</v>
-      </c>
-      <c r="H93" t="n">
-        <v>5</v>
-      </c>
-      <c r="I93" t="n">
-        <v>273959251</v>
-      </c>
-      <c r="J93" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>273602049</v>
+        <v>271515346</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>loa keo nanomax sk-15d2 xam bass 40cm cong suat 550w karaoke bluetooth hang chinh hang</t>
+          <t>loa sony srs-xb100</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>nanomax</t>
+          <t>sony</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>images/speaker/product_273602049.jpg</t>
+          <t>images/speaker/product_271515346.jpg</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/97/a7/88/28357b633fd65e46d91711916432d019.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/20/7a/b2/f5d6e605e4bc1deb9253b7bd96c5b46f.jpg</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>4772600</v>
+        <v>1114530</v>
       </c>
       <c r="G94" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H94" t="n">
+        <v>5</v>
+      </c>
+      <c r="I94" t="n">
+        <v>271515347</v>
+      </c>
+      <c r="J94" t="n">
         <v>3</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>276289901</v>
-      </c>
-      <c r="J94" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>273328383</v>
+        <v>241638318</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>loa bluetooth harman kardon go play 3  - hang chinh hang</t>
+          <t>loa marshall stanmore iii</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>harman kardon</t>
+          <t>marshall</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>images/speaker/product_273328383.jpg</t>
+          <t>images/speaker/product_241638318.jpg</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/06/3e/cb/55c0a3a5bc68f1094a16ec06a71209f7.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/bf/82/cd/3ceffdaf188510a10307d789bfe6ad5f.jpg</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>5853000</v>
+        <v>11750000</v>
       </c>
       <c r="G95" t="n">
-        <v>25</v>
+        <v>4.5</v>
       </c>
       <c r="H95" t="n">
         <v>5</v>
       </c>
       <c r="I95" t="n">
-        <v>273328463</v>
+        <v>241638324</v>
       </c>
       <c r="J95" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>272286025</v>
+        <v>241635069</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>loa vi tinh logitech z407 bluetooth, cong suat 80w - hang chinh hang</t>
+          <t>loa marshall woburn iii</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>logitech</t>
+          <t>marshall</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>images/speaker/product_272286025.jpg</t>
+          <t>images/speaker/product_241635069.jpg</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/82/64/36/68cf6b5918670c2827d3ddfe83a7c583.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/51/ec/17/5f5af5171e5b276b0aafb36e02c96149.jpg</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1882000</v>
+        <v>17640000</v>
       </c>
       <c r="G96" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I96" t="n">
-        <v>272286072</v>
+        <v>241635080</v>
       </c>
       <c r="J96" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>271966725</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>loa bluetooth sony srs-xb100 - hang chinh hang</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>sony</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>images/speaker/product_271966725.jpg</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/f7/03/20/26ace5ca62627dcff2e7d73fadd7a0e2.jpg</t>
-        </is>
-      </c>
-      <c r="F97" t="n">
-        <v>1060000</v>
-      </c>
-      <c r="G97" t="n">
-        <v>24</v>
-      </c>
-      <c r="H97" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="I97" t="n">
-        <v>272110302</v>
-      </c>
-      <c r="J97" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>271829222</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>loa bluetooth mini sothing dw13 vintage retro am thanh 3d, decor phong ngu, qua tang- hang chinh hang</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>sothing xiangwu</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>images/speaker/product_271829222.jpg</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/b5/15/84/ca4d8e7f99b81b49247c4c70e25a1e28.jpg</t>
-        </is>
-      </c>
-      <c r="F98" t="n">
-        <v>169000</v>
-      </c>
-      <c r="G98" t="n">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>272254696</v>
-      </c>
-      <c r="J98" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>271515346</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>loa bluetooth sony srs-xb100 - hang chinh hang</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>sony</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>images/speaker/product_271515346.jpg</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/20/7a/b2/f5d6e605e4bc1deb9253b7bd96c5b46f.jpg</t>
-        </is>
-      </c>
-      <c r="F99" t="n">
-        <v>1114530</v>
-      </c>
-      <c r="G99" t="n">
-        <v>3</v>
-      </c>
-      <c r="H99" t="n">
-        <v>5</v>
-      </c>
-      <c r="I99" t="n">
-        <v>271515347</v>
-      </c>
-      <c r="J99" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>241638318</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>loa bluetooth marshall stanmore iii - hang chinh hang</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>marshall</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>images/speaker/product_241638318.jpg</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/bf/82/cd/3ceffdaf188510a10307d789bfe6ad5f.jpg</t>
-        </is>
-      </c>
-      <c r="F100" t="n">
-        <v>11750000</v>
-      </c>
-      <c r="G100" t="n">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>5</v>
-      </c>
-      <c r="I100" t="n">
-        <v>241638324</v>
-      </c>
-      <c r="J100" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>241635069</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>loa bluetooth marshall woburn iii - hang chinh hang</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>marshall</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>images/speaker/product_241635069.jpg</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/51/ec/17/5f5af5171e5b276b0aafb36e02c96149.jpg</t>
-        </is>
-      </c>
-      <c r="F101" t="n">
-        <v>17640000</v>
-      </c>
-      <c r="G101" t="n">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>5</v>
-      </c>
-      <c r="I101" t="n">
-        <v>241635080</v>
-      </c>
-      <c r="J101" t="n">
         <v>1</v>
       </c>
     </row>
